--- a/reports/resnet18_23_no_MMTM/prediction/3/prediction_test_3.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/3/prediction_test_3.xlsx
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
